--- a/C:\reports\UserReport.xlsx
+++ b/C:\reports\UserReport.xlsx
@@ -20,34 +20,34 @@
     <t>Value</t>
   </si>
   <si>
-    <t>5DQHI5</t>
+    <t>8DZZQ8</t>
   </si>
   <si>
-    <t>2LDFY2</t>
+    <t>2ODCL2</t>
   </si>
   <si>
-    <t>0DFAS0</t>
+    <t>1OARQ1</t>
   </si>
   <si>
-    <t>3JCOG3</t>
+    <t>3JGDR3</t>
   </si>
   <si>
-    <t>0TSBJ0</t>
+    <t>5LBJP5</t>
   </si>
   <si>
-    <t>8TWPQ8</t>
+    <t>4ENEI4</t>
   </si>
   <si>
-    <t>1DVYF1</t>
+    <t>0XKSA0</t>
   </si>
   <si>
-    <t>4IJWV4</t>
+    <t>0YQBM0</t>
   </si>
   <si>
-    <t>6RJSV6</t>
+    <t>6TGED6</t>
   </si>
   <si>
-    <t>7TAKK7</t>
+    <t>7BUFM7</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -127,7 +127,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -143,7 +143,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -151,7 +151,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -159,7 +159,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="9">
@@ -167,7 +167,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
